--- a/data/Subset1_WithDialogActs/Martino Fraction Equivalence 4_Grade 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Martino Fraction Equivalence 4_Grade 4.xlsx_with_dialog_acts.xlsx
@@ -623,12 +623,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -927,12 +927,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2333,12 +2333,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2485,12 +2485,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2523,12 +2523,12 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4153,12 +4153,12 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4191,12 +4191,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4685,12 +4685,12 @@
       <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -4951,12 +4951,12 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5027,12 +5027,12 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5483,12 +5483,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6129,12 +6129,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6243,12 +6243,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6737,12 +6737,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6889,12 +6889,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7117,12 +7117,12 @@
       <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7421,12 +7421,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7687,12 +7687,12 @@
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7801,12 +7801,12 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8519,12 +8519,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8595,12 +8595,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
